--- a/data/jasper/ChiangWanan_after_twitter.xlsx
+++ b/data/jasper/ChiangWanan_after_twitter.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="2702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="2535">
   <si>
     <t>UserName</t>
   </si>
@@ -13248,890 +13248,6 @@
  27 NovReplying to 
  @ChinaCritic
  支持蔣萬安政見</t>
-  </si>
-  <si>
-    <t>2022-11-26T23:55:20.000Z</t>
-  </si>
-  <si>
-    <t>Azalea
- @shoushika1
- ·
- 27 Nov“我们做到了”、“我们办到了”，未来可期也。
- 九合一大選》最年輕台北市長！蔣萬安擁抱蔣孝嚴宣布當選 高喊：帶領台北加大步伐 @中時新聞網 https://youtu.be/YezSykpjv6M via 
- @YouTube
- youtube.com
- 九合一大選》最年輕台北市長！蔣萬安擁抱蔣孝嚴宣布當選 高喊：帶領台北加大步伐 @中時新聞網
- 成為這個頻道的會員並獲得獎勵：http://bit.ly/3DXfVYY【相關新聞】#中時新聞網 #蔣萬安 #台北市長 #蔣孝嚴 #當選 #國民黨 #九合一選舉中時新聞網FB粉絲專頁
- 1</t>
-  </si>
-  <si>
-    <t>2022-11-26T23:20:08.000Z</t>
-  </si>
-  <si>
-    <t>然後呢？
- @Athena_Lin0506
- ·
- 27 Nov突然想到，蔣萬安出入台北市政府要不要裝台北通？</t>
-  </si>
-  <si>
-    <t>2022-11-26T23:09:32.000Z</t>
-  </si>
-  <si>
-    <t>鄭顯修
- @u_ksjpp
- ·
- 27 Nov祝賀 蔣萬安
- 當選 台北市長
- 創造人生的新起點
- 還要向上發展
- 雄霸ㄧ方</t>
-  </si>
-  <si>
-    <t>2022-11-26T22:59:25.000Z</t>
-  </si>
-  <si>
-    <t>台灣大叔
- @XjxjjxDjdjdj
- ·
- 27 Nov簡單說一下這次選舉的感想，因為我住新北，台北也住過10幾年，就說說北部的選情
- 1、台北：本來就是藍大於綠的地方，剛開始一度對陳時中的選情樂觀，但是後來蔣萬安反守為攻，屢屢針對疫情疫苗採購潑糞攻擊，加上黃珊珊的謀財害命說，基本上就是二打一的狀況，陳時中的戰力沒有阿扁來的高，可惜了～
- 1
- 1
- 7</t>
-  </si>
-  <si>
-    <t>Real Li Tsaiyin（Albee, 李采茵）</t>
-  </si>
-  <si>
-    <t>@AlbeeLiTsaiyin</t>
-  </si>
-  <si>
-    <t>2022-11-26T22:47:07.000Z</t>
-  </si>
-  <si>
-    <t>Real Li Tsaiyin（Albee, 李采茵）
- @AlbeeLiTsaiyin
- ·
- 27 NovCongratulations to Mr.蔣萬安.
- TaiwanPlus
- @taiwanplusnews
- ·
- 26 Nov
- It's official -- KMT's Chiang Wan-an gives victory speech as the next mayor of Taipei, the youngest person to hold the post.</t>
-  </si>
-  <si>
-    <t>唐柏橋</t>
-  </si>
-  <si>
-    <t>@tangbaiqiao</t>
-  </si>
-  <si>
-    <t>2022-11-26T22:41:48.000Z</t>
-  </si>
-  <si>
-    <t>唐柏橋
- @tangbaiqiao
- ·
- 27 Nov恭喜蔣萬安當選台北市長！
- 估計有人會表示不解，我為什麼會祝賀國民黨人當選？我不是支持現在親共的國民黨，而是過去反共的蔣介石。蔣萬安和另外兩位蔣公第四代蔣友柏和蔣友常都是在美國接受最好的教育，都非常優秀，也非常帥氣。相比之下，毛的後代就真的太慘不忍睹了。蔣毛之爭，最終蔣完勝！
- 1
- 6
- 29</t>
-  </si>
-  <si>
-    <t>錢科</t>
-  </si>
-  <si>
-    <t>@corey5048</t>
-  </si>
-  <si>
-    <t>2022-11-26T22:39:52.000Z</t>
-  </si>
-  <si>
-    <t>錢科
- @corey5048
- ·
- 27 Nov現在要提防的 絕對不是朱立倫蔣萬安之類的 而是傅崐萁 但他不一定會是親自出來
- 1</t>
-  </si>
-  <si>
-    <t>天使</t>
-  </si>
-  <si>
-    <t>@GNQ6RajRvuHzWmW</t>
-  </si>
-  <si>
-    <t>2022-11-26T22:38:19.000Z</t>
-  </si>
-  <si>
-    <t>天使
- @GNQ6RajRvuHzWmW
- ·
- 27 Nov蔣萬安成功奪回首都，蔣家再渡重回政治舞台，有蔣中正的神韻
- youtube.com
- 最年輕台北市長 蔣萬安成功奪回首都 @東森新聞 CH51
- 台北市長選戰，國民黨蔣萬安，票數遙遙領先對手陳時中和黃珊珊。蔣萬安以大進場的方式，感謝選民，發表當選感言。肩負國民黨拿回首都任務，蔣萬安一上台，就高呼我們做到了。他還說，這不只是他的勝利，更是大家的勝利，用選票戰勝側翼和黑箱。
- 1
- 1
- 4</t>
-  </si>
-  <si>
-    <t>2022-11-26T22:31:06.000Z</t>
-  </si>
-  <si>
-    <t>少年郎
- @kAi6Op6tjkbAMQc
- ·
- 27 Nov這件事情就給我，我要在推特上面關注蔣萬安，提醒他，教育他，警告他千千萬,萬萬千不能親共，投共，舔共！！！否則的話，他的政治前途就是死路一條
- 蚊虎
- @simon_fifa2002
- ·
- 27 Nov
- Replying to @kAi6Op6tjkbAMQc
- 假孙子 真骗子 君子四年之约@kAi6Op6tjkbAMQc 这个孙子要是不卖台不倾共我请你来德国度假滑雪一周
- 1
- 1</t>
-  </si>
-  <si>
-    <t>2022-11-26T22:30:51.000Z</t>
-  </si>
-  <si>
-    <t>少年郎
- @kAi6Op6tjkbAMQc
- ·
- 27 NovReplying to 
- @simon_fifa2002
- 這件事情就給我，我要在推特上面關注蔣萬安，提醒他，教育他，警告他千千萬,萬萬千不能親共，投共，舔共！！！否則的話，他的政治前途就是死路一條</t>
-  </si>
-  <si>
-    <t>2022-11-26T22:26:11.000Z</t>
-  </si>
-  <si>
-    <t>綠營死忠支持者生涯 已經結束 。改當隱形側翼，請原諒我 這樣我的心情才會好
- @koyehol567
- ·
- 27 NovReplying to 
- @JohnchenOrz
-  and 
- @TryBeCare
- 國民黨獨大
- 誰能監督
- 蔣萬安做什麼呢？
- 1</t>
-  </si>
-  <si>
-    <t>2022-11-26T21:14:25.000Z</t>
-  </si>
-  <si>
-    <t>van kane Lio
- @Im_vanKane
- ·
- 27 NovReplying to 
- @ron5233
- , 
- @rainmaker1980
-  and 
- @tracy68683668
- 慈濟和中國的關係是不錯啊，在中國打壓NGO被背景下還能沒黨支部，而且有幾十億資產。沒關係，我們繼續看下去。
- 黃珊珊是有做了一些事，但基本上就是做分內而已。按你這個邏輯，新竹應該選沈慧虹啊。
- 蔣萬安原先民調就最高，基本盤又大，還有太子光環，最後當選。結論：被網軍捧上去。腦子還好嗎？</t>
-  </si>
-  <si>
-    <t>愛してるCoco【地蔵王】</t>
-  </si>
-  <si>
-    <t>@Coco198946</t>
-  </si>
-  <si>
-    <t>2022-11-26T21:10:10.000Z</t>
-  </si>
-  <si>
-    <t>愛してるCoco【地蔵王】
- @Coco198946
- ·
- 27 Nov黃毓民 毓民踢爆 221126 ep642 p1 of 4 九合一地方選舉民進黨崩盤輸到脫褲/蔣萬安為國民黨重奪首都執政權
- youtube.com
- 黃毓民 毓民踢爆 221126 ep642 p1 of 4 九合一地方選舉民進黨崩盤輸到脫褲/蔣萬安為國民黨重奪首都執政權
- 黃毓民 毓民踢爆 221126 ep642主持 黃毓民MyRadio Patreon:https://www.patreon.com/myradiohkMyRadio.HK 節目月費收費表https://myradio.hk/?page_id=35MYRADIO.HKhttp://myradio.hk- You...
- 1</t>
-  </si>
-  <si>
-    <t>喵流青年</t>
-  </si>
-  <si>
-    <t>@midwaydude</t>
-  </si>
-  <si>
-    <t>2022-11-26T21:06:49.000Z</t>
-  </si>
-  <si>
-    <t>喵流青年
- @midwaydude
- ·
- 27 NovReplying to 
- @wheat28476160
-  and 
- @Dr_ming_13
- 蔣萬安難道不是更差？
- 1</t>
-  </si>
-  <si>
-    <t>2022-11-26T20:36:30.000Z</t>
-  </si>
-  <si>
-    <t>Hî-á
- @khong_bah_Fish
- ·
- 27 Nov然後迎接蔣萬安。
- takumi
- @usahanablanc
- ·
- 26 Nov
- 終於要把柯文哲丟到新竹市了
- 9</t>
-  </si>
-  <si>
-    <t>2022-11-26T20:34:02.000Z</t>
-  </si>
-  <si>
-    <t>Jonathan
- @JonathanChen194
- ·
- 27 Nov果然不負眾望！蔣萬安當選台北市長！感謝各位！恭喜！</t>
-  </si>
-  <si>
-    <t>H.Chang</t>
-  </si>
-  <si>
-    <t>@HenryCh91557018</t>
-  </si>
-  <si>
-    <t>2022-11-26T20:14:07.000Z</t>
-  </si>
-  <si>
-    <t>H.Chang
- @HenryCh91557018
- ·
- 27 Nov選輸了還在睜眼說瞎話，跟共匪一樣
- 陳時中哽咽致歉宣布落選！致電祝福蔣萬安「對防疫的抹黑到此為止！」｜鏡週刊
- youtube.com
- 陳時中哽咽致歉宣布落選！致電祝福蔣萬安「對防疫的抹黑到此為止！」｜鏡週刊
- 選情激烈的台北市長選戰，在傍晚7時，民進黨候選人陳時中發表感言，他謝謝選民，並稱「希望大家祝福蔣萬安」。陳時中的開票票數，目前仍落後國民黨候選人蔣萬安，並對支持者稱「很抱歉，我努力不夠」。陳時中稱，雖然讓大家失望，但不能絕望。【選戰激烈 陳時中認敗選：希望大家祝福蔣萬安】https://reurl.cc/lZgG...</t>
-  </si>
-  <si>
-    <t>#綠油精nimblevet 深蹲市市民 殺人魔孫子主政</t>
-  </si>
-  <si>
-    <t>@nimblevettw</t>
-  </si>
-  <si>
-    <t>2022-11-26T20:06:52.000Z</t>
-  </si>
-  <si>
-    <t>#綠油精nimblevet 深蹲市市民 殺人魔孫子主政
- @nimblevettw
- ·
- 27 NovReplying to 
- @a0927737091
-  @CYW29705159
-  and 2 others
- 所以中國擋對你們來說也是抗中保台？
- 派副主席匯見共產黨也沒關係？
- 蔣萬安爸爸蔣孝嚴是買辦的事實也是抗中保台？
- 1</t>
-  </si>
-  <si>
-    <t>Chris Han</t>
-  </si>
-  <si>
-    <t>@ChrisHan_Taiwan</t>
-  </si>
-  <si>
-    <t>2022-11-26T20:06:02.000Z</t>
-  </si>
-  <si>
-    <t>Chris Han
- @ChrisHan_Taiwan
- ·
- 27 Nov拜託！高虹安欸！蔣萬安欸！這種都投得下去還當選我真的...無言</t>
-  </si>
-  <si>
-    <t>2022-11-26T20:02:58.000Z</t>
-  </si>
-  <si>
-    <t>Chan Joe
- @ChanJoe48720896
- ·
- 27 NovReplying to 
- @gincho94
- ‘’蔣經國反共好棒棒‘’
- 結果人家還是投蔣萬安不說，原本的支持者都氣飽了
- 2
- 6</t>
-  </si>
-  <si>
-    <t>thur</t>
-  </si>
-  <si>
-    <t>@thur138</t>
-  </si>
-  <si>
-    <t>2022-11-26T19:45:36.000Z</t>
-  </si>
-  <si>
-    <t>thur
- @thur138
- ·
- 27 Nov再問你怎麼讓台北成為國際企業人才的優先選擇？
- 蔣萬安說我們要蓋更多共享辦公室、雙語學校，還有國際嘉年華（WTF？什麼意思？國際企業不用人是因為我們共享辦公室不夠？！F_CK不會去咖啡廳嗎，辦嘉年華國外人才就會跑來開趴了？）
- 1</t>
-  </si>
-  <si>
-    <t>2022-11-26T19:45:35.000Z</t>
-  </si>
-  <si>
-    <t>thur
- @thur138
- ·
- 27 Nov我還是不太懂中保無限加為什麼會選上欸，台北市民真的有帶腦袋去投票嗎
- 隨便找一篇新創問政，問三位候選人是否會繼續天使投資，蔣萬安說這些都是納稅人的錢，但我們要特別注重早期投資（白話就是：對，要繼續天使投資，讓新創好棒棒活下來）
- 1</t>
-  </si>
-  <si>
-    <t>伍凡</t>
-  </si>
-  <si>
-    <t>@wufanus</t>
-  </si>
-  <si>
-    <t>2022-11-26T19:32:12.000Z</t>
-  </si>
-  <si>
-    <t>伍凡
- @wufanus
- ·
- 27 Nov蔣萬安57萬票當選台北市長：民主戰勝黑箱
- 蔣萬安各後援會輪番上陣致詞，當時下午5時選票還沒開完，但致詞太過興奮，不斷提及「蔣萬安的當選是台北市民的勝利」、「大家見證歷史」猶如已經當選；但反倒提起台下支持者開心揮舞氣氛熱烈。
- https://worldjournal.com/wj/story/121218/6795312?from=wj_maintab_index…</t>
-  </si>
-  <si>
-    <t>2022-11-26T19:28:35.000Z</t>
-  </si>
-  <si>
-    <t>van kane Lio
- @Im_vanKane
- ·
- 27 NovReplying to 
- @shaoankinmen
-  @HeShinFang
-  and 2 others
- 1 法國的sanofi 和英國的gsk夠老牌藥廠吧，法國直接簽21億大單，最後還是失敗。以結果來看也沒有被世界認可
- 2 有人逼你打哪種疫苗嗎？不是4種疫苗隨便選？
- 國外比較便宜，有證據嗎？怕是看過價格的蔣萬安也2不敢說哦。
- 3 只能說一樣爛，不敢說誰更爛，真是俗辣。
- 1</t>
-  </si>
-  <si>
-    <t>中華民國五權憲法，六權分立，三民主義信仰，民主聯邦制度。</t>
-  </si>
-  <si>
-    <t>@ThierryHoang3</t>
-  </si>
-  <si>
-    <t>2022-11-26T19:23:48.000Z</t>
-  </si>
-  <si>
-    <t>中華民國五權憲法，六權分立，三民主義信仰，民主聯邦制度。
- @ThierryHoang3
- ·
- 27 Nov(蔣萬安)希望好好地努力做好台北市長職務！
- 將來得到臺灣人民的支持才繼續出征總統(候選人)哦。努力加油吧！
- 3</t>
-  </si>
-  <si>
-    <t>2022-11-26T19:22:28.000Z</t>
-  </si>
-  <si>
-    <t>黃喜志
- @ThierryHoang1
- ·
- 27 NovReplying to 
- @kuomintang
- (蔣萬安)同志希望好好地努力做好台北市長職務！
- 將來得到臺灣人民的支持才繼續出征總統(候選人)哦。努力加油吧！
- 7</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:59:31.000Z</t>
-  </si>
-  <si>
-    <t>YANG YANG
- @XINYANGLIN3
- ·
- 27 NovReplying to 
- @koyehol567
- 倒數第二名蔣萬安
- 1</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:58:45.000Z</t>
-  </si>
-  <si>
-    <t>smith wong
- @smithjusticeW
- ·
- 27 Nov陳時中還是陳時中，一位優秀的競選伙伴。
- 承認敗選！陳時中籲「支持蔣萬安」 盼抹黑防疫成果到此為止。
- news.ltn.com.tw
- 承認敗選！陳時中籲「支持蔣萬安」 盼抹黑防疫成果到此為止 - 政治 - 自由時報電子報
- 台北市長選舉開票結果，民進黨台北市長候選人陳時中在晚間6點50分出現在舞台宣布敗選，表示已打電話恭喜領先的國民黨候選人蔣萬安，他呼籲大家團結給蔣萬安支持，希望蔣萬安把台北市治理的更好，也希望從明天開始，對台灣防疫成果的抹黑跟攻擊隨著選舉結束，到此為止；更強調要支持總統蔡英文，把台灣穩住，一起面對疫後經濟的挑戰。</t>
-  </si>
-  <si>
-    <t>Raccoons are not red pandas</t>
-  </si>
-  <si>
-    <t>@GroverLynn</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:54:53.000Z</t>
-  </si>
-  <si>
-    <t>Raccoons are not red pandas
- @GroverLynn
- ·
- 27 NovReplying to 
- @midwaydude
- 民進黨在臺北從來都是大敗，蔣萬安這票數，在臺北市長選舉史上算不上大勝</t>
-  </si>
-  <si>
-    <t>一隻想飛的魚</t>
-  </si>
-  <si>
-    <t>@Tingggggg9</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:39:33.000Z</t>
-  </si>
-  <si>
-    <t>一隻想飛的魚
- @Tingggggg9
- ·
- 27 Nov整理一下
- 台北：爸寶
- 新北：吃案人
- 桃園：貪污人
- 新竹：下屬被騷擾直接無視
- 苗栗：殺人未遂
- 台灣人是不是活太多想領便當了啊？-？
- 阿中沒有上雖然是預期的事
- 但我沒有想到黃33會輸那麼多欸
- 還有一堆老人（甚至是在新加坡遇到的計程車司機也是）在那邊說當然投蔣萬安啊 投帥的好
- 是不是當我智障啊^_^</t>
-  </si>
-  <si>
-    <t>Karen Woods 林爷</t>
-  </si>
-  <si>
-    <t>@KarenWenLin</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:38:59.000Z</t>
-  </si>
-  <si>
-    <t>Karen Woods 林爷
- @KarenWenLin
- ·
- 27 NovReplying to 
- @KmtEnemy
- 作爲一個旁觀者， 我舉得台灣的政客素質稍微好一些， 蔣萬安， 陳時中 都相互祝福啊。 在加拿大覺大部分城市， municipal election 實際上是無黨派的 還是一在地政策 local policies 爲主，所以看到九合一能扯到抗中保台， 我也是呵呵了。 不知道台灣將來會不會也選擇九合一去黨派的模式
- 1
- 1</t>
-  </si>
-  <si>
-    <t>formyblackdog</t>
-  </si>
-  <si>
-    <t>@formyblackdog</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:33:03.000Z</t>
-  </si>
-  <si>
-    <t>formyblackdog
- @formyblackdog
- ·
- 27 Nov至於台北真的是沒什麼好說，台北太鐵、也被保護的太好，不管發生什麼，首都人會是最後才遭殃，很難有直接的晃動；除非戰爭，除非飛彈打到城內、蔣萬安還大聲叫好的程度，老台北阿伯阿婆才會醒吧⋯⋯
- 1</t>
-  </si>
-  <si>
-    <t>Juliette</t>
-  </si>
-  <si>
-    <t>@devento3i</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:31:16.000Z</t>
-  </si>
-  <si>
-    <t>Juliette
- @devento3i
- ·
- 27 NovReplying to 
- @lelefarley
- 中共是自由世界最大且迫切要面對的問題！問蔣萬安誰理他意見，好好改善台北市</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:28:19.000Z</t>
-  </si>
-  <si>
-    <t>A brave man standing on a bridge
- @MichaelZyxF
- ·
- 27 NovReplying to 
- @gohanalittle
-  and 
- @LoEd0801
- 蔣萬安不是跟習一條心的嗎，頭坑歹了
- 2</t>
-  </si>
-  <si>
-    <t>Yi Ho</t>
-  </si>
-  <si>
-    <t>@Geigemachen</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:27:40.000Z</t>
-  </si>
-  <si>
-    <t>Yi Ho
- @Geigemachen
- ·
- 27 NovReplying to 
- @Geigemachen
-  and 
- @milpitas95035
- “國民黨台北市長候選人蔣萬安表示，簽署不投降承諾書「很白癡」、「沒有人會投降」。對此，日本資深媒體人矢板明夫則回顧國民黨的歷史，打臉蔣萬安說法。
- https://news.ltn.com.tw/news/politics/breakingnews/4090767…
- “蔣萬安諷不投降承諾書 美女醫：軍官成共諜簽「投降承諾書」打臉蔣
- https://news.ltn.com.tw/news/politics/breakingnews/4133794…
- news.ltn.com.tw
- 蔣萬安稱簽不投降書「很白痴」 矢板明夫提國民黨歷史打臉 - 政治 - 自由時報電子報
- 年底將舉行九合一大選，近日多個台派民間團體，大力邀請候選人簽署「不投降承諾書」，不過國民黨台北市長候選人蔣萬安表示，簽署不投降承諾書「很白癡」、「沒有人會投降」。對此，日本資深媒體人矢板明夫則回顧國民黨的歷史，打臉蔣萬安說法。矢板明夫在臉書貼文表示，簽署「不投降承諾書」一事也引起日媒討論，迄今為止已有新北市的林佳龍、嘉義市的李俊俋、雲林縣的劉建國、基隆市的蔡適應等，超過70名候選人簽署了該承...</t>
-  </si>
-  <si>
-    <t>Aurelia V</t>
-  </si>
-  <si>
-    <t>@senjatanuklir</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:24:06.000Z</t>
-  </si>
-  <si>
-    <t>Aurelia V
- @senjatanuklir
- ·
- 27 NovHasil dari election di Taiwan kemarin, Chiang Wan-an (蔣萬安) dari partai KMT terpilih sebagai walikota Taipei; walikota TPE termuda sepanjang sejarah.
- Bapaknya blio ini anak illegitimate dr Chiang Ching-kuo— mantan presiden Taiwan &amp; anaknya Chiang Kai-shek. #reistrivia
- 7
- 54
- 253</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:23:14.000Z</t>
-  </si>
-  <si>
-    <t>Juliette
- @devento3i
- ·
- 27 NovReplying to 
- @Minging33929778
-  and 
- @lelefarley
- 蔣萬安要角逐總統大位，沒這個機會，至少2024，他不會上！台北是深藍大票倉，一堆老黨員，他也不過拿到36萬票，要是這次沒棄保黃珊珊，他沒戲...</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:22:44.000Z</t>
-  </si>
-  <si>
-    <t>狗蛋
- @goudan33509947
- ·
- 27 NovReplying to 
- @tainansweet888
- 我覺得我比蔣萬安強一百倍
- 2</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:21:21.000Z</t>
-  </si>
-  <si>
-    <t>少年郎
- @kAi6Op6tjkbAMQc
- ·
- 27 Nov蔣萬安不做DNA是非常正確的！！！
- 誰要是讓我宋雨軒做DNA證明我是我爺爺的孫子，我不但堅決不做！並且會怒斥他，大罵他！因為他嚴重的侮辱到了我的人格！他是卑鄙無恥的！他怎麼不自己做DNA證明他是他爺爺的孫子呢？當真是豈有此理！！！
- 1
- 1</t>
-  </si>
-  <si>
-    <t>東呱檸檬@心靈富有鴨</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:21:20.000Z</t>
-  </si>
-  <si>
-    <t>東呱檸檬@心靈富有鴨
- @tunking1224
- ·
- 27 Nov反正我是不知道黃偉哲叫西瓜的話蔣萬安要叫什麼啦
- 12</t>
-  </si>
-  <si>
-    <t>Loli Con</t>
-  </si>
-  <si>
-    <t>@l3Bo4mdHdkauW3z</t>
-  </si>
-  <si>
-    <t>2022-11-26T18:06:34.000Z</t>
-  </si>
-  <si>
-    <t>Loli Con
- @l3Bo4mdHdkauW3z
- ·
- 27 NovReplying to 
- @yuchenlee2021
-  and 
- @Narra74835
- 謝謝您告訴我這些事，我一直不瞭解為什麼珊珊票很少，原來是為了教訓民眾黨呀，浪費經費的確是很不好。 我總算有個理由接受蔣萬安當選了</t>
-  </si>
-  <si>
-    <t>人在江湖</t>
-  </si>
-  <si>
-    <t>@dishan21</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:51:40.000Z</t>
-  </si>
-  <si>
-    <t>人在江湖
- @dishan21
- ·
- 27 Nov蔣萬安將是未來台灣的總統 | am730
- am730.com.hk
- 蔣萬安將是未來台灣的總統 | am730
- 美國的「中期選舉」剛完結，又輪到台灣的「九合一選舉」，全名是「直轄市長選舉及縣市長選舉」，將在11月26日舉行，被視為2024年總統大選的前哨戰。 由於民進黨的執政口碑太差，而且根據民調，它已失掉了其基本盤，即年輕人的支持。一般認為，它將會大敗，6個市長可能只能拿到2個，甚至連發家之地台南市，也受到國民黨的謝龍介的極</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:50:56.000Z</t>
-  </si>
-  <si>
-    <t>Yael _Formosa 鹿島橋閒人
- @yeshuaformosa
- ·
- 27 NovReplying to 
- @David76590525
-  and 
- @caojitw
- 蔣萬安會當選，最好台北市龜毛啦 只看血統 政見都不重要
- 1
- 1
- 1</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:48:26.000Z</t>
-  </si>
-  <si>
-    <t>Juliette
- @devento3i
- ·
- 27 NovReplying to 
- @blackmuntainyao
- , 
- @qscasd7073
-  and 
- @lelefarley
- 沒關係，我相信蔣萬安不會做的好，到時候總統大選反而是民進黨的利多！不過地方選舉給民進黨一個當頭棒喝也好，不然一直藍綠亂鬥，倒不如好好各自表現！地方選舉本來一直都是藍勝，他們善於顧樁腳，國家決策的選舉：立委、總統，基本藍都輸
- 1
- 2</t>
-  </si>
-  <si>
-    <t>sodas</t>
-  </si>
-  <si>
-    <t>@sodastsai</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:46:36.000Z</t>
-  </si>
-  <si>
-    <t>sodas
- @sodastsai
- ·
- 27 Nov高虹安張善政侯友宜蔣萬安分別當上新竹桃園新北台北市長就地震
- 是不是德不配位？
- 噢 還有黃瀞瑩
- 太震了吧
- #反串要註明
- 10</t>
-  </si>
-  <si>
-    <t>希望在人心</t>
-  </si>
-  <si>
-    <t>@tom86996</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:18:38.000Z</t>
-  </si>
-  <si>
-    <t>希望在人心
- @tom86996
- ·
- 27 NovReplying to 
- @xianglin8964
- , 
- @TaipeiShihChung
-  and 
- @Davidttttttttt
- 中共病毒感覺處理與否都那樣，放著不管最後也沒什麼事。與其說民進黨輸給了國民黨，不如說反傳統的極端化主義輸給了保守派。蔣萬安畢竟競選名義是將家後人，而民進黨前些年有人還在清楚蔣介石雕像。中華民國國民都把這些看在眼裡，嘴上不說靠選票說</t>
-  </si>
-  <si>
-    <t>Mark Li</t>
-  </si>
-  <si>
-    <t>@MarkLi46516439</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:17:34.000Z</t>
-  </si>
-  <si>
-    <t>Mark Li
- @MarkLi46516439
- ·
- 27 NovReplying to 
- @HsiungIvy
-  and 
- @lelefarley
- 都沒看到蔣萬安發表不同意洪秀柱，張安樂這些人的看法</t>
-  </si>
-  <si>
-    <t>蔡育英</t>
-  </si>
-  <si>
-    <t>@caiyuying3</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:10:26.000Z</t>
-  </si>
-  <si>
-    <t>蔡育英
- @caiyuying3
- ·
- 27 NovReplying to 
- @NewsflashTW
- 讓簡舒培，阿苗，趙怡翔!監督蔣萬安!會不會表演二楞子!登徒子!吳崢，林穎孟落選了!
- 1</t>
-  </si>
-  <si>
-    <t>白色雅各賓派</t>
-  </si>
-  <si>
-    <t>@desjacobins</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:09:49.000Z</t>
-  </si>
-  <si>
-    <t>白色雅各賓派
- @desjacobins
- ·
- 27 Nov港華唔知點解有種錯覺認為民進黨大敗係因為無處理好交通問題，而唔係蔡英文刻意選擇既中華民國在台灣路線，不敵於拋棄左韓國魚既朱立倫-蔣萬安嫡系傳人。
- 2
- 1
- 16</t>
-  </si>
-  <si>
-    <t>SolarmanTed</t>
-  </si>
-  <si>
-    <t>@princeton_walk</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:07:08.000Z</t>
-  </si>
-  <si>
-    <t>SolarmanTed
- @princeton_walk
- ·
- 27 NovReplying to 
- @eternoveritas
- 這次蔣萬安不管輸贏讓人看到了針對一個人的雙重標準，有人罵他因為他姓蔣，是獨裁者後代；又有人罵他不敢做DNA驗明血緣，也就是罵他冒充蔣氏後代。
- 1</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:06:35.000Z</t>
-  </si>
-  <si>
-    <t>Bite the hand that feeds you
- @Bondi_Tsunami
- ·
- 27 NovReplying to 
- @chihyisara
- 蔣萬安…. 幹</t>
-  </si>
-  <si>
-    <t>斑斑</t>
-  </si>
-  <si>
-    <t>@BBenbane</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:02:53.000Z</t>
-  </si>
-  <si>
-    <t>斑斑
- @BBenbane
- ·
- 27 Nov好想知道蔣萬安到底做了哪些事讓他可以當台北市長喔。
- 有沒有支持他或投給他的人可以來說一下？？
- 4
- 24</t>
-  </si>
-  <si>
-    <t>(りんりん)</t>
-  </si>
-  <si>
-    <t>@linghui002</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>(りんりん)
- @linghui002
- ·
- 27 Nov過去幾年陳時中跟黃珊珊都在疫情上很辛勤努力
- 結果選舉結果是蔣萬安當選
- 真的很好笑XD
- 真是人生寫照。
- 運氣才是最重要的…
- 1
- 3</t>
-  </si>
-  <si>
-    <t>2022-11-26T17:00:00.000Z</t>
-  </si>
-  <si>
-    <t>三立LIVE新聞
- @setlivenews
- ·
- 27 Nov[一刀未剪] "要向對手表達最高敬意"! 蔣萬安當選台北市長 致謝阿中.黃珊珊"是非常可敬的對手" 強調此次選舉展現民主風範 讓選舉圓滿落幕｜https://youtu.be/ceiNjuJGGkI
- 1
- 3</t>
   </si>
 </sst>
 </file>
@@ -28961,1030 +28077,490 @@
       <c r="G752" s="6"/>
     </row>
     <row r="753">
-      <c r="A753" s="3" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B753" s="4" t="s">
-        <v>2508</v>
-      </c>
-      <c r="C753" s="4" t="s">
-        <v>2535</v>
-      </c>
-      <c r="D753" s="5" t="s">
-        <v>2536</v>
-      </c>
+      <c r="A753" s="3"/>
+      <c r="B753" s="4"/>
+      <c r="C753" s="4"/>
+      <c r="D753" s="7"/>
       <c r="E753" s="6"/>
-      <c r="F753" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="F753" s="8"/>
       <c r="G753" s="6"/>
     </row>
     <row r="754">
-      <c r="A754" s="3" t="s">
-        <v>2005</v>
-      </c>
-      <c r="B754" s="4" t="s">
-        <v>2006</v>
-      </c>
-      <c r="C754" s="4" t="s">
-        <v>2537</v>
-      </c>
-      <c r="D754" s="7" t="s">
-        <v>2538</v>
-      </c>
+      <c r="A754" s="3"/>
+      <c r="B754" s="4"/>
+      <c r="C754" s="4"/>
+      <c r="D754" s="7"/>
       <c r="E754" s="6"/>
       <c r="F754" s="6"/>
       <c r="G754" s="6"/>
     </row>
     <row r="755">
-      <c r="A755" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B755" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C755" s="4" t="s">
-        <v>2539</v>
-      </c>
-      <c r="D755" s="7" t="s">
-        <v>2540</v>
-      </c>
+      <c r="A755" s="3"/>
+      <c r="B755" s="4"/>
+      <c r="C755" s="4"/>
+      <c r="D755" s="7"/>
       <c r="E755" s="6"/>
       <c r="F755" s="6"/>
       <c r="G755" s="6"/>
     </row>
     <row r="756">
-      <c r="A756" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B756" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C756" s="4" t="s">
-        <v>2541</v>
-      </c>
-      <c r="D756" s="7" t="s">
-        <v>2542</v>
-      </c>
-      <c r="E756" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F756" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G756" s="8">
-        <v>7.0</v>
-      </c>
+      <c r="A756" s="3"/>
+      <c r="B756" s="4"/>
+      <c r="C756" s="4"/>
+      <c r="D756" s="7"/>
+      <c r="E756" s="8"/>
+      <c r="F756" s="8"/>
+      <c r="G756" s="8"/>
     </row>
     <row r="757">
-      <c r="A757" s="3" t="s">
-        <v>2543</v>
-      </c>
-      <c r="B757" s="4" t="s">
-        <v>2544</v>
-      </c>
-      <c r="C757" s="4" t="s">
-        <v>2545</v>
-      </c>
-      <c r="D757" s="7" t="s">
-        <v>2546</v>
-      </c>
+      <c r="A757" s="3"/>
+      <c r="B757" s="4"/>
+      <c r="C757" s="4"/>
+      <c r="D757" s="7"/>
       <c r="E757" s="6"/>
       <c r="F757" s="6"/>
       <c r="G757" s="6"/>
     </row>
     <row r="758">
-      <c r="A758" s="3" t="s">
-        <v>2547</v>
-      </c>
-      <c r="B758" s="4" t="s">
-        <v>2548</v>
-      </c>
-      <c r="C758" s="4" t="s">
-        <v>2549</v>
-      </c>
-      <c r="D758" s="7" t="s">
-        <v>2550</v>
-      </c>
-      <c r="E758" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F758" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="G758" s="8">
-        <v>29.0</v>
-      </c>
+      <c r="A758" s="3"/>
+      <c r="B758" s="4"/>
+      <c r="C758" s="4"/>
+      <c r="D758" s="7"/>
+      <c r="E758" s="8"/>
+      <c r="F758" s="8"/>
+      <c r="G758" s="8"/>
     </row>
     <row r="759">
-      <c r="A759" s="3" t="s">
-        <v>2551</v>
-      </c>
-      <c r="B759" s="4" t="s">
-        <v>2552</v>
-      </c>
-      <c r="C759" s="4" t="s">
-        <v>2553</v>
-      </c>
-      <c r="D759" s="7" t="s">
-        <v>2554</v>
-      </c>
+      <c r="A759" s="3"/>
+      <c r="B759" s="4"/>
+      <c r="C759" s="4"/>
+      <c r="D759" s="7"/>
       <c r="E759" s="6"/>
       <c r="F759" s="6"/>
-      <c r="G759" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="G759" s="8"/>
     </row>
     <row r="760">
-      <c r="A760" s="3" t="s">
-        <v>2555</v>
-      </c>
-      <c r="B760" s="4" t="s">
-        <v>2556</v>
-      </c>
-      <c r="C760" s="4" t="s">
-        <v>2557</v>
-      </c>
-      <c r="D760" s="5" t="s">
-        <v>2558</v>
-      </c>
-      <c r="E760" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F760" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G760" s="8">
-        <v>4.0</v>
-      </c>
+      <c r="A760" s="3"/>
+      <c r="B760" s="4"/>
+      <c r="C760" s="4"/>
+      <c r="D760" s="7"/>
+      <c r="E760" s="8"/>
+      <c r="F760" s="8"/>
+      <c r="G760" s="8"/>
     </row>
     <row r="761">
-      <c r="A761" s="3" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B761" s="4" t="s">
-        <v>1995</v>
-      </c>
-      <c r="C761" s="4" t="s">
-        <v>2559</v>
-      </c>
-      <c r="D761" s="7" t="s">
-        <v>2560</v>
-      </c>
-      <c r="E761" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A761" s="3"/>
+      <c r="B761" s="4"/>
+      <c r="C761" s="4"/>
+      <c r="D761" s="7"/>
+      <c r="E761" s="8"/>
       <c r="F761" s="6"/>
-      <c r="G761" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="G761" s="8"/>
     </row>
     <row r="762">
-      <c r="A762" s="3" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B762" s="4" t="s">
-        <v>1995</v>
-      </c>
-      <c r="C762" s="4" t="s">
-        <v>2561</v>
-      </c>
-      <c r="D762" s="7" t="s">
-        <v>2562</v>
-      </c>
+      <c r="A762" s="3"/>
+      <c r="B762" s="4"/>
+      <c r="C762" s="4"/>
+      <c r="D762" s="7"/>
       <c r="E762" s="6"/>
       <c r="F762" s="6"/>
       <c r="G762" s="6"/>
     </row>
     <row r="763">
-      <c r="A763" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B763" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C763" s="4" t="s">
-        <v>2563</v>
-      </c>
-      <c r="D763" s="7" t="s">
-        <v>2564</v>
-      </c>
+      <c r="A763" s="3"/>
+      <c r="B763" s="4"/>
+      <c r="C763" s="4"/>
+      <c r="D763" s="7"/>
       <c r="E763" s="6"/>
       <c r="F763" s="6"/>
-      <c r="G763" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="G763" s="8"/>
     </row>
     <row r="764">
-      <c r="A764" s="3" t="s">
-        <v>2212</v>
-      </c>
-      <c r="B764" s="4" t="s">
-        <v>2213</v>
-      </c>
-      <c r="C764" s="4" t="s">
-        <v>2565</v>
-      </c>
-      <c r="D764" s="7" t="s">
-        <v>2566</v>
-      </c>
+      <c r="A764" s="3"/>
+      <c r="B764" s="4"/>
+      <c r="C764" s="4"/>
+      <c r="D764" s="7"/>
       <c r="E764" s="6"/>
       <c r="F764" s="6"/>
       <c r="G764" s="6"/>
     </row>
     <row r="765">
-      <c r="A765" s="3" t="s">
-        <v>2567</v>
-      </c>
-      <c r="B765" s="4" t="s">
-        <v>2568</v>
-      </c>
-      <c r="C765" s="4" t="s">
-        <v>2569</v>
-      </c>
-      <c r="D765" s="5" t="s">
-        <v>2570</v>
-      </c>
+      <c r="A765" s="3"/>
+      <c r="B765" s="4"/>
+      <c r="C765" s="4"/>
+      <c r="D765" s="7"/>
       <c r="E765" s="6"/>
       <c r="F765" s="6"/>
-      <c r="G765" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="G765" s="8"/>
     </row>
     <row r="766">
-      <c r="A766" s="3" t="s">
-        <v>2571</v>
-      </c>
-      <c r="B766" s="4" t="s">
-        <v>2572</v>
-      </c>
-      <c r="C766" s="4" t="s">
-        <v>2573</v>
-      </c>
-      <c r="D766" s="7" t="s">
-        <v>2574</v>
-      </c>
-      <c r="E766" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A766" s="3"/>
+      <c r="B766" s="4"/>
+      <c r="C766" s="4"/>
+      <c r="D766" s="7"/>
+      <c r="E766" s="8"/>
       <c r="F766" s="6"/>
       <c r="G766" s="6"/>
     </row>
     <row r="767">
-      <c r="A767" s="3" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B767" s="4" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C767" s="4" t="s">
-        <v>2575</v>
-      </c>
-      <c r="D767" s="7" t="s">
-        <v>2576</v>
-      </c>
+      <c r="A767" s="3"/>
+      <c r="B767" s="4"/>
+      <c r="C767" s="4"/>
+      <c r="D767" s="7"/>
       <c r="E767" s="6"/>
       <c r="F767" s="6"/>
-      <c r="G767" s="8">
-        <v>9.0</v>
-      </c>
+      <c r="G767" s="8"/>
     </row>
     <row r="768">
-      <c r="A768" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B768" s="4" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C768" s="4" t="s">
-        <v>2577</v>
-      </c>
-      <c r="D768" s="7" t="s">
-        <v>2578</v>
-      </c>
+      <c r="A768" s="3"/>
+      <c r="B768" s="4"/>
+      <c r="C768" s="4"/>
+      <c r="D768" s="7"/>
       <c r="E768" s="6"/>
       <c r="F768" s="6"/>
       <c r="G768" s="6"/>
     </row>
     <row r="769">
-      <c r="A769" s="3" t="s">
-        <v>2579</v>
-      </c>
-      <c r="B769" s="4" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C769" s="4" t="s">
-        <v>2581</v>
-      </c>
-      <c r="D769" s="5" t="s">
-        <v>2582</v>
-      </c>
+      <c r="A769" s="3"/>
+      <c r="B769" s="4"/>
+      <c r="C769" s="4"/>
+      <c r="D769" s="7"/>
       <c r="E769" s="6"/>
       <c r="F769" s="6"/>
       <c r="G769" s="6"/>
     </row>
     <row r="770">
-      <c r="A770" s="3" t="s">
-        <v>2583</v>
-      </c>
-      <c r="B770" s="4" t="s">
-        <v>2584</v>
-      </c>
-      <c r="C770" s="4" t="s">
-        <v>2585</v>
-      </c>
-      <c r="D770" s="7" t="s">
-        <v>2586</v>
-      </c>
-      <c r="E770" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A770" s="3"/>
+      <c r="B770" s="4"/>
+      <c r="C770" s="4"/>
+      <c r="D770" s="7"/>
+      <c r="E770" s="8"/>
       <c r="F770" s="6"/>
       <c r="G770" s="6"/>
     </row>
     <row r="771">
-      <c r="A771" s="3" t="s">
-        <v>2587</v>
-      </c>
-      <c r="B771" s="4" t="s">
-        <v>2588</v>
-      </c>
-      <c r="C771" s="4" t="s">
-        <v>2589</v>
-      </c>
-      <c r="D771" s="7" t="s">
-        <v>2590</v>
-      </c>
+      <c r="A771" s="3"/>
+      <c r="B771" s="4"/>
+      <c r="C771" s="4"/>
+      <c r="D771" s="7"/>
       <c r="E771" s="6"/>
       <c r="F771" s="6"/>
       <c r="G771" s="6"/>
     </row>
     <row r="772">
-      <c r="A772" s="3" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B772" s="4" t="s">
-        <v>2219</v>
-      </c>
-      <c r="C772" s="4" t="s">
-        <v>2591</v>
-      </c>
-      <c r="D772" s="7" t="s">
-        <v>2592</v>
-      </c>
+      <c r="A772" s="3"/>
+      <c r="B772" s="4"/>
+      <c r="C772" s="4"/>
+      <c r="D772" s="7"/>
       <c r="E772" s="6"/>
-      <c r="F772" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="G772" s="8">
-        <v>6.0</v>
-      </c>
+      <c r="F772" s="8"/>
+      <c r="G772" s="8"/>
     </row>
     <row r="773">
-      <c r="A773" s="3" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B773" s="4" t="s">
-        <v>2594</v>
-      </c>
-      <c r="C773" s="4" t="s">
-        <v>2595</v>
-      </c>
-      <c r="D773" s="7" t="s">
-        <v>2596</v>
-      </c>
-      <c r="E773" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A773" s="3"/>
+      <c r="B773" s="4"/>
+      <c r="C773" s="4"/>
+      <c r="D773" s="7"/>
+      <c r="E773" s="8"/>
       <c r="F773" s="6"/>
       <c r="G773" s="6"/>
     </row>
     <row r="774">
-      <c r="A774" s="3" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B774" s="4" t="s">
-        <v>2594</v>
-      </c>
-      <c r="C774" s="4" t="s">
-        <v>2597</v>
-      </c>
-      <c r="D774" s="7" t="s">
-        <v>2598</v>
-      </c>
-      <c r="E774" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A774" s="3"/>
+      <c r="B774" s="4"/>
+      <c r="C774" s="4"/>
+      <c r="D774" s="7"/>
+      <c r="E774" s="8"/>
       <c r="F774" s="6"/>
       <c r="G774" s="6"/>
     </row>
     <row r="775">
-      <c r="A775" s="3" t="s">
-        <v>2599</v>
-      </c>
-      <c r="B775" s="4" t="s">
-        <v>2600</v>
-      </c>
-      <c r="C775" s="4" t="s">
-        <v>2601</v>
-      </c>
-      <c r="D775" s="5" t="s">
-        <v>2602</v>
-      </c>
+      <c r="A775" s="3"/>
+      <c r="B775" s="4"/>
+      <c r="C775" s="4"/>
+      <c r="D775" s="7"/>
       <c r="E775" s="6"/>
       <c r="F775" s="6"/>
       <c r="G775" s="6"/>
     </row>
     <row r="776">
-      <c r="A776" s="3" t="s">
-        <v>2212</v>
-      </c>
-      <c r="B776" s="4" t="s">
-        <v>2213</v>
-      </c>
-      <c r="C776" s="4" t="s">
-        <v>2603</v>
-      </c>
-      <c r="D776" s="7" t="s">
-        <v>2604</v>
-      </c>
-      <c r="E776" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A776" s="3"/>
+      <c r="B776" s="4"/>
+      <c r="C776" s="4"/>
+      <c r="D776" s="7"/>
+      <c r="E776" s="8"/>
       <c r="F776" s="6"/>
       <c r="G776" s="6"/>
     </row>
     <row r="777">
-      <c r="A777" s="3" t="s">
-        <v>2605</v>
-      </c>
-      <c r="B777" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="C777" s="4" t="s">
-        <v>2607</v>
-      </c>
-      <c r="D777" s="7" t="s">
-        <v>2608</v>
-      </c>
+      <c r="A777" s="3"/>
+      <c r="B777" s="4"/>
+      <c r="C777" s="4"/>
+      <c r="D777" s="7"/>
       <c r="E777" s="6"/>
       <c r="F777" s="6"/>
-      <c r="G777" s="8">
-        <v>3.0</v>
-      </c>
+      <c r="G777" s="8"/>
     </row>
     <row r="778">
-      <c r="A778" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="B778" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="C778" s="4" t="s">
-        <v>2609</v>
-      </c>
-      <c r="D778" s="7" t="s">
-        <v>2610</v>
-      </c>
+      <c r="A778" s="3"/>
+      <c r="B778" s="4"/>
+      <c r="C778" s="4"/>
+      <c r="D778" s="7"/>
       <c r="E778" s="6"/>
       <c r="F778" s="6"/>
-      <c r="G778" s="8">
-        <v>7.0</v>
-      </c>
+      <c r="G778" s="8"/>
     </row>
     <row r="779">
-      <c r="A779" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="B779" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="C779" s="4" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D779" s="7" t="s">
-        <v>2612</v>
-      </c>
+      <c r="A779" s="3"/>
+      <c r="B779" s="4"/>
+      <c r="C779" s="4"/>
+      <c r="D779" s="7"/>
       <c r="E779" s="6"/>
       <c r="F779" s="6"/>
-      <c r="G779" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="G779" s="8"/>
     </row>
     <row r="780">
-      <c r="A780" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B780" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C780" s="4" t="s">
-        <v>2613</v>
-      </c>
-      <c r="D780" s="5" t="s">
-        <v>2614</v>
-      </c>
+      <c r="A780" s="3"/>
+      <c r="B780" s="4"/>
+      <c r="C780" s="4"/>
+      <c r="D780" s="7"/>
       <c r="E780" s="6"/>
       <c r="F780" s="6"/>
       <c r="G780" s="6"/>
     </row>
     <row r="781">
-      <c r="A781" s="3" t="s">
-        <v>2615</v>
-      </c>
-      <c r="B781" s="4" t="s">
-        <v>2616</v>
-      </c>
-      <c r="C781" s="4" t="s">
-        <v>2617</v>
-      </c>
-      <c r="D781" s="7" t="s">
-        <v>2618</v>
-      </c>
+      <c r="A781" s="3"/>
+      <c r="B781" s="4"/>
+      <c r="C781" s="4"/>
+      <c r="D781" s="7"/>
       <c r="E781" s="6"/>
       <c r="F781" s="6"/>
       <c r="G781" s="6"/>
     </row>
     <row r="782">
-      <c r="A782" s="3" t="s">
-        <v>2619</v>
-      </c>
-      <c r="B782" s="4" t="s">
-        <v>2620</v>
-      </c>
-      <c r="C782" s="4" t="s">
-        <v>2621</v>
-      </c>
-      <c r="D782" s="7" t="s">
-        <v>2622</v>
-      </c>
+      <c r="A782" s="3"/>
+      <c r="B782" s="4"/>
+      <c r="C782" s="4"/>
+      <c r="D782" s="7"/>
       <c r="E782" s="6"/>
       <c r="F782" s="6"/>
       <c r="G782" s="6"/>
     </row>
     <row r="783">
-      <c r="A783" s="3" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B783" s="4" t="s">
-        <v>2624</v>
-      </c>
-      <c r="C783" s="4" t="s">
-        <v>2625</v>
-      </c>
-      <c r="D783" s="7" t="s">
-        <v>2626</v>
-      </c>
-      <c r="E783" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A783" s="3"/>
+      <c r="B783" s="4"/>
+      <c r="C783" s="4"/>
+      <c r="D783" s="7"/>
+      <c r="E783" s="8"/>
       <c r="F783" s="6"/>
-      <c r="G783" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="G783" s="8"/>
     </row>
     <row r="784">
-      <c r="A784" s="3" t="s">
-        <v>2627</v>
-      </c>
-      <c r="B784" s="4" t="s">
-        <v>2628</v>
-      </c>
-      <c r="C784" s="4" t="s">
-        <v>2629</v>
-      </c>
-      <c r="D784" s="7" t="s">
-        <v>2630</v>
-      </c>
-      <c r="E784" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A784" s="3"/>
+      <c r="B784" s="4"/>
+      <c r="C784" s="4"/>
+      <c r="D784" s="7"/>
+      <c r="E784" s="8"/>
       <c r="F784" s="6"/>
       <c r="G784" s="6"/>
     </row>
     <row r="785">
-      <c r="A785" s="3" t="s">
-        <v>2631</v>
-      </c>
-      <c r="B785" s="4" t="s">
-        <v>2632</v>
-      </c>
-      <c r="C785" s="4" t="s">
-        <v>2633</v>
-      </c>
-      <c r="D785" s="7" t="s">
-        <v>2634</v>
-      </c>
+      <c r="A785" s="3"/>
+      <c r="B785" s="4"/>
+      <c r="C785" s="4"/>
+      <c r="D785" s="7"/>
       <c r="E785" s="6"/>
       <c r="F785" s="6"/>
       <c r="G785" s="6"/>
     </row>
     <row r="786">
-      <c r="A786" s="3" t="s">
-        <v>1870</v>
-      </c>
-      <c r="B786" s="4" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C786" s="4" t="s">
-        <v>2635</v>
-      </c>
-      <c r="D786" s="7" t="s">
-        <v>2636</v>
-      </c>
+      <c r="A786" s="3"/>
+      <c r="B786" s="4"/>
+      <c r="C786" s="4"/>
+      <c r="D786" s="7"/>
       <c r="E786" s="6"/>
       <c r="F786" s="6"/>
-      <c r="G786" s="8">
-        <v>2.0</v>
-      </c>
+      <c r="G786" s="8"/>
     </row>
     <row r="787">
-      <c r="A787" s="3" t="s">
-        <v>2637</v>
-      </c>
-      <c r="B787" s="4" t="s">
-        <v>2638</v>
-      </c>
-      <c r="C787" s="4" t="s">
-        <v>2639</v>
-      </c>
-      <c r="D787" s="5" t="s">
-        <v>2640</v>
-      </c>
+      <c r="A787" s="3"/>
+      <c r="B787" s="4"/>
+      <c r="C787" s="4"/>
+      <c r="D787" s="7"/>
       <c r="E787" s="6"/>
       <c r="F787" s="6"/>
       <c r="G787" s="6"/>
     </row>
     <row r="788">
-      <c r="A788" s="3" t="s">
-        <v>2641</v>
-      </c>
-      <c r="B788" s="4" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C788" s="4" t="s">
-        <v>2643</v>
-      </c>
-      <c r="D788" s="7" t="s">
-        <v>2644</v>
-      </c>
-      <c r="E788" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="F788" s="8">
-        <v>54.0</v>
-      </c>
-      <c r="G788" s="8">
-        <v>253.0</v>
-      </c>
+      <c r="A788" s="3"/>
+      <c r="B788" s="4"/>
+      <c r="C788" s="4"/>
+      <c r="D788" s="7"/>
+      <c r="E788" s="8"/>
+      <c r="F788" s="8"/>
+      <c r="G788" s="8"/>
     </row>
     <row r="789">
-      <c r="A789" s="3" t="s">
-        <v>2631</v>
-      </c>
-      <c r="B789" s="4" t="s">
-        <v>2632</v>
-      </c>
-      <c r="C789" s="4" t="s">
-        <v>2645</v>
-      </c>
-      <c r="D789" s="7" t="s">
-        <v>2646</v>
-      </c>
+      <c r="A789" s="3"/>
+      <c r="B789" s="4"/>
+      <c r="C789" s="4"/>
+      <c r="D789" s="7"/>
       <c r="E789" s="6"/>
       <c r="F789" s="6"/>
       <c r="G789" s="6"/>
     </row>
     <row r="790">
-      <c r="A790" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B790" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C790" s="4" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D790" s="7" t="s">
-        <v>2648</v>
-      </c>
+      <c r="A790" s="3"/>
+      <c r="B790" s="4"/>
+      <c r="C790" s="4"/>
+      <c r="D790" s="7"/>
       <c r="E790" s="6"/>
       <c r="F790" s="6"/>
-      <c r="G790" s="8">
-        <v>2.0</v>
-      </c>
+      <c r="G790" s="8"/>
     </row>
     <row r="791">
-      <c r="A791" s="3" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B791" s="4" t="s">
-        <v>1995</v>
-      </c>
-      <c r="C791" s="4" t="s">
-        <v>2649</v>
-      </c>
-      <c r="D791" s="7" t="s">
-        <v>2650</v>
-      </c>
-      <c r="E791" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A791" s="3"/>
+      <c r="B791" s="4"/>
+      <c r="C791" s="4"/>
+      <c r="D791" s="7"/>
+      <c r="E791" s="8"/>
       <c r="F791" s="6"/>
-      <c r="G791" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="G791" s="8"/>
     </row>
     <row r="792">
-      <c r="A792" s="3" t="s">
-        <v>2651</v>
-      </c>
-      <c r="B792" s="4" t="s">
-        <v>2651</v>
-      </c>
-      <c r="C792" s="4" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D792" s="7" t="s">
-        <v>2653</v>
-      </c>
+      <c r="A792" s="3"/>
+      <c r="B792" s="4"/>
+      <c r="C792" s="4"/>
+      <c r="D792" s="7"/>
       <c r="E792" s="6"/>
       <c r="F792" s="6"/>
-      <c r="G792" s="8">
-        <v>12.0</v>
-      </c>
+      <c r="G792" s="8"/>
     </row>
     <row r="793">
-      <c r="A793" s="3" t="s">
-        <v>2654</v>
-      </c>
-      <c r="B793" s="4" t="s">
-        <v>2655</v>
-      </c>
-      <c r="C793" s="4" t="s">
-        <v>2656</v>
-      </c>
-      <c r="D793" s="7" t="s">
-        <v>2657</v>
-      </c>
+      <c r="A793" s="3"/>
+      <c r="B793" s="4"/>
+      <c r="C793" s="4"/>
+      <c r="D793" s="7"/>
       <c r="E793" s="6"/>
       <c r="F793" s="6"/>
       <c r="G793" s="6"/>
     </row>
     <row r="794">
-      <c r="A794" s="3" t="s">
-        <v>2658</v>
-      </c>
-      <c r="B794" s="4" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C794" s="4" t="s">
-        <v>2660</v>
-      </c>
-      <c r="D794" s="5" t="s">
-        <v>2661</v>
-      </c>
+      <c r="A794" s="3"/>
+      <c r="B794" s="4"/>
+      <c r="C794" s="4"/>
+      <c r="D794" s="7"/>
       <c r="E794" s="6"/>
       <c r="F794" s="6"/>
       <c r="G794" s="6"/>
     </row>
     <row r="795">
-      <c r="A795" s="3" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B795" s="4" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C795" s="4" t="s">
-        <v>2662</v>
-      </c>
-      <c r="D795" s="7" t="s">
-        <v>2663</v>
-      </c>
-      <c r="E795" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F795" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G795" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A795" s="3"/>
+      <c r="B795" s="4"/>
+      <c r="C795" s="4"/>
+      <c r="D795" s="7"/>
+      <c r="E795" s="8"/>
+      <c r="F795" s="8"/>
+      <c r="G795" s="8"/>
     </row>
     <row r="796">
-      <c r="A796" s="3" t="s">
-        <v>2631</v>
-      </c>
-      <c r="B796" s="4" t="s">
-        <v>2632</v>
-      </c>
-      <c r="C796" s="4" t="s">
-        <v>2664</v>
-      </c>
-      <c r="D796" s="7" t="s">
-        <v>2665</v>
-      </c>
-      <c r="E796" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A796" s="3"/>
+      <c r="B796" s="4"/>
+      <c r="C796" s="4"/>
+      <c r="D796" s="7"/>
+      <c r="E796" s="8"/>
       <c r="F796" s="6"/>
-      <c r="G796" s="8">
-        <v>2.0</v>
-      </c>
+      <c r="G796" s="8"/>
     </row>
     <row r="797">
-      <c r="A797" s="3" t="s">
-        <v>2666</v>
-      </c>
-      <c r="B797" s="4" t="s">
-        <v>2667</v>
-      </c>
-      <c r="C797" s="4" t="s">
-        <v>2668</v>
-      </c>
-      <c r="D797" s="7" t="s">
-        <v>2669</v>
-      </c>
+      <c r="A797" s="3"/>
+      <c r="B797" s="4"/>
+      <c r="C797" s="4"/>
+      <c r="D797" s="7"/>
       <c r="E797" s="6"/>
       <c r="F797" s="6"/>
-      <c r="G797" s="8">
-        <v>10.0</v>
-      </c>
+      <c r="G797" s="8"/>
     </row>
     <row r="798">
-      <c r="A798" s="3" t="s">
-        <v>2670</v>
-      </c>
-      <c r="B798" s="4" t="s">
-        <v>2671</v>
-      </c>
-      <c r="C798" s="4" t="s">
-        <v>2672</v>
-      </c>
-      <c r="D798" s="7" t="s">
-        <v>2673</v>
-      </c>
+      <c r="A798" s="3"/>
+      <c r="B798" s="4"/>
+      <c r="C798" s="4"/>
+      <c r="D798" s="7"/>
       <c r="E798" s="6"/>
       <c r="F798" s="6"/>
       <c r="G798" s="6"/>
     </row>
     <row r="799">
-      <c r="A799" s="3" t="s">
-        <v>2674</v>
-      </c>
-      <c r="B799" s="4" t="s">
-        <v>2675</v>
-      </c>
-      <c r="C799" s="4" t="s">
-        <v>2676</v>
-      </c>
-      <c r="D799" s="7" t="s">
-        <v>2677</v>
-      </c>
+      <c r="A799" s="3"/>
+      <c r="B799" s="4"/>
+      <c r="C799" s="4"/>
+      <c r="D799" s="7"/>
       <c r="E799" s="6"/>
       <c r="F799" s="6"/>
       <c r="G799" s="6"/>
     </row>
     <row r="800">
-      <c r="A800" s="3" t="s">
-        <v>2678</v>
-      </c>
-      <c r="B800" s="4" t="s">
-        <v>2679</v>
-      </c>
-      <c r="C800" s="4" t="s">
-        <v>2680</v>
-      </c>
-      <c r="D800" s="7" t="s">
-        <v>2681</v>
-      </c>
+      <c r="A800" s="3"/>
+      <c r="B800" s="4"/>
+      <c r="C800" s="4"/>
+      <c r="D800" s="7"/>
       <c r="E800" s="6"/>
       <c r="F800" s="6"/>
-      <c r="G800" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="G800" s="8"/>
     </row>
     <row r="801">
-      <c r="A801" s="3" t="s">
-        <v>2682</v>
-      </c>
-      <c r="B801" s="4" t="s">
-        <v>2683</v>
-      </c>
-      <c r="C801" s="4" t="s">
-        <v>2684</v>
-      </c>
-      <c r="D801" s="7" t="s">
-        <v>2685</v>
-      </c>
-      <c r="E801" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="F801" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G801" s="8">
-        <v>16.0</v>
-      </c>
+      <c r="A801" s="3"/>
+      <c r="B801" s="4"/>
+      <c r="C801" s="4"/>
+      <c r="D801" s="7"/>
+      <c r="E801" s="8"/>
+      <c r="F801" s="8"/>
+      <c r="G801" s="8"/>
     </row>
     <row r="802">
-      <c r="A802" s="3" t="s">
-        <v>2686</v>
-      </c>
-      <c r="B802" s="4" t="s">
-        <v>2687</v>
-      </c>
-      <c r="C802" s="4" t="s">
-        <v>2688</v>
-      </c>
-      <c r="D802" s="7" t="s">
-        <v>2689</v>
-      </c>
+      <c r="A802" s="3"/>
+      <c r="B802" s="4"/>
+      <c r="C802" s="4"/>
+      <c r="D802" s="7"/>
       <c r="E802" s="6"/>
       <c r="F802" s="6"/>
-      <c r="G802" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="G802" s="8"/>
     </row>
     <row r="803">
-      <c r="A803" s="3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B803" s="4" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C803" s="4" t="s">
-        <v>2690</v>
-      </c>
-      <c r="D803" s="7" t="s">
-        <v>2691</v>
-      </c>
+      <c r="A803" s="3"/>
+      <c r="B803" s="4"/>
+      <c r="C803" s="4"/>
+      <c r="D803" s="7"/>
       <c r="E803" s="6"/>
       <c r="F803" s="6"/>
       <c r="G803" s="6"/>
     </row>
     <row r="804">
-      <c r="A804" s="3" t="s">
-        <v>2692</v>
-      </c>
-      <c r="B804" s="4" t="s">
-        <v>2693</v>
-      </c>
-      <c r="C804" s="4" t="s">
-        <v>2694</v>
-      </c>
-      <c r="D804" s="7" t="s">
-        <v>2695</v>
-      </c>
-      <c r="E804" s="8">
-        <v>4.0</v>
-      </c>
+      <c r="A804" s="3"/>
+      <c r="B804" s="4"/>
+      <c r="C804" s="4"/>
+      <c r="D804" s="7"/>
+      <c r="E804" s="8"/>
       <c r="F804" s="6"/>
-      <c r="G804" s="8">
-        <v>24.0</v>
-      </c>
+      <c r="G804" s="8"/>
     </row>
     <row r="805">
-      <c r="A805" s="3" t="s">
-        <v>2696</v>
-      </c>
-      <c r="B805" s="4" t="s">
-        <v>2697</v>
-      </c>
-      <c r="C805" s="4" t="s">
-        <v>2698</v>
-      </c>
-      <c r="D805" s="7" t="s">
-        <v>2699</v>
-      </c>
-      <c r="E805" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="A805" s="3"/>
+      <c r="B805" s="4"/>
+      <c r="C805" s="4"/>
+      <c r="D805" s="7"/>
+      <c r="E805" s="8"/>
       <c r="F805" s="6"/>
-      <c r="G805" s="8">
-        <v>3.0</v>
-      </c>
+      <c r="G805" s="8"/>
     </row>
     <row r="806">
-      <c r="A806" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="B806" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C806" s="4" t="s">
-        <v>2700</v>
-      </c>
-      <c r="D806" s="5" t="s">
-        <v>2701</v>
-      </c>
+      <c r="A806" s="3"/>
+      <c r="B806" s="4"/>
+      <c r="C806" s="4"/>
+      <c r="D806" s="7"/>
       <c r="E806" s="6"/>
-      <c r="F806" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G806" s="8">
-        <v>3.0</v>
-      </c>
+      <c r="F806" s="8"/>
+      <c r="G806" s="8"/>
     </row>
     <row r="807">
       <c r="A807" s="3"/>
@@ -36178,16 +34754,7 @@
     <hyperlink r:id="rId149" ref="D745"/>
     <hyperlink r:id="rId150" ref="D747"/>
     <hyperlink r:id="rId151" ref="D749"/>
-    <hyperlink r:id="rId152" ref="D753"/>
-    <hyperlink r:id="rId153" ref="D760"/>
-    <hyperlink r:id="rId154" ref="D765"/>
-    <hyperlink r:id="rId155" ref="D769"/>
-    <hyperlink r:id="rId156" ref="D775"/>
-    <hyperlink r:id="rId157" ref="D780"/>
-    <hyperlink r:id="rId158" ref="D787"/>
-    <hyperlink r:id="rId159" ref="D794"/>
-    <hyperlink r:id="rId160" ref="D806"/>
   </hyperlinks>
-  <drawing r:id="rId161"/>
+  <drawing r:id="rId152"/>
 </worksheet>
 </file>